--- a/excel/vgl1sp.xlsx
+++ b/excel/vgl1sp.xlsx
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2430.689048570803</v>
+        <v>1544.763549788639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.396323950444213</v>
+        <v>16.66716940549019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.981848440265052</v>
+        <v>6.319093035679026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2494.385444679318</v>
+        <v>272.0598338291907</v>
       </c>
     </row>
     <row r="6">
@@ -465,17 +465,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-23.6201764706307</v>
+        <v>-1.075223718055057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.865296146847708</v>
+        <v>16.95839285692236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19.77167910053742</v>
+        <v>14.60776154105167</v>
       </c>
     </row>
     <row r="10">
@@ -485,17 +485,17 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54.90259334894322</v>
+        <v>75.31082602296755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.02376704725958</v>
+        <v>37.57221834711555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-70.56175434451164</v>
+        <v>19.54874378507861</v>
       </c>
     </row>
     <row r="14">
@@ -505,187 +505,187 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9729807574612026</v>
+        <v>7.111066813031273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23.15397970278741</v>
+        <v>25.51591301842608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>158.1523008164486</v>
+        <v>129.5914038931099</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>119.5548824284194</v>
+        <v>76.81947175234757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.25487051747486</v>
+        <v>13.23949715876108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.50354107411883</v>
+        <v>11.62161820926466</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-168.1362652517273</v>
+        <v>-44.49788142002072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>203.3736889417343</v>
+        <v>83.6327189017691</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.294273625095318</v>
+        <v>12.8890811884949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24.39278919607386</v>
+        <v>31.05010885897013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.051188392891126</v>
+        <v>9.983681223733864</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>117.9809868095373</v>
+        <v>986.118381390278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.030364943792314</v>
+        <v>23.73419351105073</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.60167641367067</v>
+        <v>8.221899028305645</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-308.4622431654889</v>
+        <v>-46.76692288678345</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31034.80796936142</v>
+        <v>-8863.029060937028</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>441.8630405023354</v>
+        <v>358.9093155526003</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.998880460995412</v>
+        <v>2.43871167100227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>435.5853664515425</v>
+        <v>1630.104507761056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.846059464212705</v>
+        <v>17.10492570004021</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3700.238665540332</v>
+        <v>4243.07215812394</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-10.75353323360308</v>
+        <v>-4.285837356019142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.485856499740802</v>
+        <v>4.792573198594943</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.7772240729449</v>
+        <v>19.73932765674574</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18.85361203579174</v>
+        <v>15.88750221294345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14.60954845081401</v>
+        <v>16.31665709510158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.68478279513151</v>
+        <v>21.19414107238912</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1.226428834539946</v>
+        <v>11.0159490779327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>45.70601607699171</v>
+        <v>57.27667764534667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>30.60068779903374</v>
+        <v>7.05595459691104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.69086665284532</v>
+        <v>22.84111115130171</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.720895048608691</v>
+        <v>7.90097331161437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17.61091787465963</v>
+        <v>25.61949649914434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-6.65429612277304</v>
+        <v>11.33233017228416</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.245069645545867</v>
+        <v>10.33031488801497</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-6.053895342188545</v>
+        <v>2.035758385371409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.121911473122571</v>
+        <v>12.13198033472699</v>
       </c>
     </row>
   </sheetData>
